--- a/Agricultura/MODELOS/MODELO 4.17 Integrado_mportaciones_mensual.xlsx
+++ b/Agricultura/MODELOS/MODELO 4.17 Integrado_mportaciones_mensual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Construcción BD DI\100 Agricultura\Reportes360\Nuevos modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\MODELOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F4674-B10C-4595-B9CB-AE552E052317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF4D17-7837-46E4-968D-0FCBBB38A661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{5402BD67-523E-46F2-97D3-E3B02C663DDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{5402BD67-523E-46F2-97D3-E3B02C663DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="669">
   <si>
     <t>2019/2020</t>
   </si>
@@ -2007,6 +2007,69 @@
   </si>
   <si>
     <t>Período</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011974073</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011974148</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011974226</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011974305?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011974399?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011974477?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011974561?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011974672?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011974762?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011974922?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012000005?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012000093?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012000184?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012000360?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012000466?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012000734?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012000877?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012000987?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012001162?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012001363?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012001487?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
   </si>
 </sst>
 </file>
@@ -2460,90 +2523,6 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -2666,6 +2645,90 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -8013,14 +8076,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}" name="Cod_categoría" displayName="Cod_categoría" ref="B2:C111" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}" name="Cod_categoría" displayName="Cod_categoría" ref="B2:C111" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B2:C111" xr:uid="{4CA779AC-3E97-4459-BF90-94F12FD2CEB9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C115">
     <sortCondition ref="B2:B115"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00A0CACF-8DA8-4EE1-B69E-D20C0D0CED17}" name="Cultivo" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{EC636045-613B-42E5-9C90-E988441BFFD8}" name="Id_Cultivo" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00A0CACF-8DA8-4EE1-B69E-D20C0D0CED17}" name="Cultivo" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{EC636045-613B-42E5-9C90-E988441BFFD8}" name="Id_Cultivo" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8043,22 +8106,22 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}" name="Cod_procesamiento10" displayName="Cod_procesamiento10" ref="B2:C15" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}" name="Cod_procesamiento10" displayName="Cod_procesamiento10" ref="B2:C15" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B2:C15" xr:uid="{EC5FE2C8-06DB-4106-9461-CA393495CC9E}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{DFB3BE9C-F8B5-4C1F-822D-968586718286}" name="Tipo de cultivo" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{A7D9713B-9CA4-4D1C-8E9D-992303A697CD}" name="Id_Categoría" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{DFB3BE9C-F8B5-4C1F-822D-968586718286}" name="Tipo de cultivo" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{A7D9713B-9CA4-4D1C-8E9D-992303A697CD}" name="Id_Categoría" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{228B48F0-A424-4478-A649-00994AC4E152}" name="Cod_procesamiento" displayName="Cod_procesamiento" ref="B2:C8" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{228B48F0-A424-4478-A649-00994AC4E152}" name="Cod_procesamiento" displayName="Cod_procesamiento" ref="B2:C8" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="B2:C8" xr:uid="{228B48F0-A424-4478-A649-00994AC4E152}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{EE422AE0-5FF5-4FF7-873B-6BC93A7C476F}" name="Procesamiento" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{775A3C91-EDE1-40BA-A829-E5FE120F9D39}" name="Id_Procesamiento" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{EE422AE0-5FF5-4FF7-873B-6BC93A7C476F}" name="Procesamiento" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{775A3C91-EDE1-40BA-A829-E5FE120F9D39}" name="Id_Procesamiento" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8367,15 +8430,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.90625" customWidth="1"/>
-    <col min="4" max="4" width="45.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
@@ -8383,7 +8446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -8391,7 +8454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -8399,7 +8462,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -8407,7 +8470,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -8415,7 +8478,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -8423,7 +8486,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -8431,7 +8494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -8439,7 +8502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -8447,7 +8510,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -8455,7 +8518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -8463,7 +8526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -8471,7 +8534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -8479,7 +8542,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -8487,7 +8550,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -8495,7 +8558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -8503,7 +8566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -8511,7 +8574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -8519,7 +8582,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -8527,7 +8590,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -8535,7 +8598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -8543,7 +8606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -8551,7 +8614,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -8559,7 +8622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -8567,7 +8630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -8575,7 +8638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -8583,7 +8646,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -8591,7 +8654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -8599,7 +8662,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -8607,7 +8670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -8615,7 +8678,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -8623,7 +8686,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -8631,7 +8694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -8639,7 +8702,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -8647,7 +8710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -8655,7 +8718,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -8663,7 +8726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -8671,7 +8734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -8679,7 +8742,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -8687,7 +8750,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -8695,7 +8758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -8703,7 +8766,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -8711,7 +8774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -8719,7 +8782,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -8727,7 +8790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -8735,7 +8798,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -8743,7 +8806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -8760,38 +8823,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79036886-1897-4BCD-BB4E-BCAD8551FFA8}">
   <dimension ref="B1:W120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.36328125" customWidth="1"/>
-    <col min="2" max="2" width="33.36328125" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.36328125" customWidth="1"/>
-    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.54296875" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="85.54296875" customWidth="1"/>
-    <col min="16" max="16" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="85.5703125" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="48.1796875" customWidth="1"/>
-    <col min="22" max="22" width="18.08984375" customWidth="1"/>
-    <col min="23" max="23" width="36.6328125" customWidth="1"/>
+    <col min="19" max="19" width="48.140625" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" customWidth="1"/>
+    <col min="23" max="23" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B1" s="35" t="s">
         <v>634</v>
       </c>
@@ -8800,7 +8863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>641</v>
       </c>
@@ -8811,7 +8874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>642</v>
       </c>
@@ -8822,7 +8885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>643</v>
       </c>
@@ -8833,7 +8896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="36" t="s">
         <v>18</v>
       </c>
@@ -8841,7 +8904,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="37" t="s">
         <v>174</v>
       </c>
@@ -8849,7 +8912,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="37" t="s">
         <v>70</v>
       </c>
@@ -8857,7 +8920,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>69</v>
       </c>
@@ -8865,13 +8928,13 @@
         <v>639</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
         <v>178</v>
       </c>
       <c r="C9" s="60"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
       <c r="C10" s="60"/>
       <c r="P10" s="2">
@@ -8887,7 +8950,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G11" s="11" t="s">
         <v>15</v>
       </c>
@@ -8940,8 +9003,11 @@
         <v>634</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
+      <c r="F12">
+        <v>1</v>
+      </c>
       <c r="G12" s="20" t="s">
         <v>72</v>
       </c>
@@ -8978,7 +9044,9 @@
       <c r="R12" s="46">
         <v>1</v>
       </c>
-      <c r="S12" s="15"/>
+      <c r="S12" s="15" t="s">
+        <v>648</v>
+      </c>
       <c r="V12" t="s">
         <v>638</v>
       </c>
@@ -8986,8 +9054,11 @@
         <v>636</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
+      <c r="F13">
+        <v>2</v>
+      </c>
       <c r="G13" s="20" t="s">
         <v>73</v>
       </c>
@@ -9024,7 +9095,9 @@
       <c r="R13" s="46">
         <v>1</v>
       </c>
-      <c r="S13" s="15"/>
+      <c r="S13" s="15" t="s">
+        <v>649</v>
+      </c>
       <c r="V13" t="s">
         <v>638</v>
       </c>
@@ -9032,7 +9105,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>3</v>
+      </c>
       <c r="G14" s="20" t="s">
         <v>74</v>
       </c>
@@ -9069,7 +9145,9 @@
       <c r="R14" s="46">
         <v>1</v>
       </c>
-      <c r="S14" s="15"/>
+      <c r="S14" s="15" t="s">
+        <v>650</v>
+      </c>
       <c r="V14" t="s">
         <v>638</v>
       </c>
@@ -9077,7 +9155,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>4</v>
+      </c>
       <c r="G15" s="20" t="s">
         <v>75</v>
       </c>
@@ -9114,7 +9195,9 @@
       <c r="R15" s="46">
         <v>7</v>
       </c>
-      <c r="S15" s="15"/>
+      <c r="S15" s="15" t="s">
+        <v>651</v>
+      </c>
       <c r="V15" t="s">
         <v>638</v>
       </c>
@@ -9122,7 +9205,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>5</v>
+      </c>
       <c r="G16" s="20" t="s">
         <v>76</v>
       </c>
@@ -9159,7 +9245,9 @@
       <c r="R16" s="46">
         <v>7</v>
       </c>
-      <c r="S16" s="15"/>
+      <c r="S16" s="15" t="s">
+        <v>652</v>
+      </c>
       <c r="V16" t="s">
         <v>638</v>
       </c>
@@ -9167,7 +9255,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>6</v>
+      </c>
       <c r="G17" s="20" t="s">
         <v>77</v>
       </c>
@@ -9204,7 +9295,9 @@
       <c r="R17" s="46">
         <v>7</v>
       </c>
-      <c r="S17" s="15"/>
+      <c r="S17" s="15" t="s">
+        <v>653</v>
+      </c>
       <c r="V17" t="s">
         <v>638</v>
       </c>
@@ -9212,7 +9305,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>7</v>
+      </c>
       <c r="G18" s="20" t="s">
         <v>78</v>
       </c>
@@ -9249,7 +9345,9 @@
       <c r="R18" s="46">
         <v>7</v>
       </c>
-      <c r="S18" s="15"/>
+      <c r="S18" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="V18" t="s">
         <v>638</v>
       </c>
@@ -9257,7 +9355,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>8</v>
+      </c>
       <c r="G19" s="20" t="s">
         <v>79</v>
       </c>
@@ -9294,7 +9395,9 @@
       <c r="R19" s="46">
         <v>7</v>
       </c>
-      <c r="S19" s="15"/>
+      <c r="S19" s="15" t="s">
+        <v>655</v>
+      </c>
       <c r="V19" t="s">
         <v>638</v>
       </c>
@@ -9302,7 +9405,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>9</v>
+      </c>
       <c r="G20" s="20" t="s">
         <v>80</v>
       </c>
@@ -9339,7 +9445,9 @@
       <c r="R20" s="46">
         <v>7</v>
       </c>
-      <c r="S20" s="15"/>
+      <c r="S20" s="15" t="s">
+        <v>656</v>
+      </c>
       <c r="V20" t="s">
         <v>638</v>
       </c>
@@ -9347,7 +9455,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>10</v>
+      </c>
       <c r="G21" s="20" t="s">
         <v>81</v>
       </c>
@@ -9384,7 +9495,9 @@
       <c r="R21" s="46">
         <v>7</v>
       </c>
-      <c r="S21" s="15"/>
+      <c r="S21" s="15" t="s">
+        <v>657</v>
+      </c>
       <c r="V21" t="s">
         <v>638</v>
       </c>
@@ -9392,7 +9505,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>11</v>
+      </c>
       <c r="G22" s="20" t="s">
         <v>82</v>
       </c>
@@ -9429,7 +9545,9 @@
       <c r="R22" s="46">
         <v>7</v>
       </c>
-      <c r="S22" s="15"/>
+      <c r="S22" s="15" t="s">
+        <v>658</v>
+      </c>
       <c r="V22" t="s">
         <v>638</v>
       </c>
@@ -9437,7 +9555,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>12</v>
+      </c>
       <c r="G23" s="20" t="s">
         <v>83</v>
       </c>
@@ -9474,7 +9595,9 @@
       <c r="R23" s="46">
         <v>7</v>
       </c>
-      <c r="S23" s="15"/>
+      <c r="S23" s="15" t="s">
+        <v>659</v>
+      </c>
       <c r="V23" t="s">
         <v>638</v>
       </c>
@@ -9482,7 +9605,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>16</v>
+      </c>
       <c r="G24" s="20" t="s">
         <v>84</v>
       </c>
@@ -9519,7 +9645,9 @@
       <c r="R24" s="46">
         <v>82</v>
       </c>
-      <c r="S24" s="15"/>
+      <c r="S24" s="15" t="s">
+        <v>660</v>
+      </c>
       <c r="V24" t="s">
         <v>638</v>
       </c>
@@ -9527,7 +9655,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>17</v>
+      </c>
       <c r="G25" s="20" t="s">
         <v>85</v>
       </c>
@@ -9564,7 +9695,9 @@
       <c r="R25" s="46">
         <v>82</v>
       </c>
-      <c r="S25" s="15"/>
+      <c r="S25" s="15" t="s">
+        <v>661</v>
+      </c>
       <c r="V25" t="s">
         <v>638</v>
       </c>
@@ -9572,7 +9705,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>18</v>
+      </c>
       <c r="G26" s="20" t="s">
         <v>86</v>
       </c>
@@ -9609,7 +9745,9 @@
       <c r="R26" s="46">
         <v>82</v>
       </c>
-      <c r="S26" s="15"/>
+      <c r="S26" s="15" t="s">
+        <v>662</v>
+      </c>
       <c r="V26" t="s">
         <v>638</v>
       </c>
@@ -9617,7 +9755,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>19</v>
+      </c>
       <c r="G27" s="20" t="s">
         <v>87</v>
       </c>
@@ -9654,7 +9795,9 @@
       <c r="R27" s="46">
         <v>82</v>
       </c>
-      <c r="S27" s="15"/>
+      <c r="S27" s="15" t="s">
+        <v>663</v>
+      </c>
       <c r="V27" t="s">
         <v>638</v>
       </c>
@@ -9662,10 +9805,13 @@
         <v>636</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
+      <c r="F28">
+        <v>20</v>
+      </c>
       <c r="G28" s="20" t="s">
         <v>88</v>
       </c>
@@ -9702,7 +9848,9 @@
       <c r="R28" s="46">
         <v>82</v>
       </c>
-      <c r="S28" s="15"/>
+      <c r="S28" s="15" t="s">
+        <v>664</v>
+      </c>
       <c r="V28" t="s">
         <v>638</v>
       </c>
@@ -9710,10 +9858,13 @@
         <v>635</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
+      <c r="F29">
+        <v>21</v>
+      </c>
       <c r="G29" s="20" t="s">
         <v>89</v>
       </c>
@@ -9750,7 +9901,9 @@
       <c r="R29" s="46">
         <v>82</v>
       </c>
-      <c r="S29" s="15"/>
+      <c r="S29" s="15" t="s">
+        <v>665</v>
+      </c>
       <c r="V29" t="s">
         <v>638</v>
       </c>
@@ -9758,10 +9911,13 @@
         <v>637</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
+      <c r="F30">
+        <v>22</v>
+      </c>
       <c r="G30" s="20" t="s">
         <v>90</v>
       </c>
@@ -9798,7 +9954,9 @@
       <c r="R30" s="46">
         <v>82</v>
       </c>
-      <c r="S30" s="15"/>
+      <c r="S30" s="15" t="s">
+        <v>666</v>
+      </c>
       <c r="V30" t="s">
         <v>638</v>
       </c>
@@ -9806,10 +9964,13 @@
         <v>636</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
+      <c r="F31">
+        <v>23</v>
+      </c>
       <c r="G31" s="20" t="s">
         <v>91</v>
       </c>
@@ -9846,7 +10007,9 @@
       <c r="R31" s="46">
         <v>82</v>
       </c>
-      <c r="S31" s="15"/>
+      <c r="S31" s="15" t="s">
+        <v>667</v>
+      </c>
       <c r="V31" t="s">
         <v>638</v>
       </c>
@@ -9854,10 +10017,13 @@
         <v>635</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
+      <c r="F32">
+        <v>24</v>
+      </c>
       <c r="G32" s="20" t="s">
         <v>92</v>
       </c>
@@ -9894,7 +10060,9 @@
       <c r="R32" s="46">
         <v>82</v>
       </c>
-      <c r="S32" s="15"/>
+      <c r="S32" s="15" t="s">
+        <v>668</v>
+      </c>
       <c r="V32" t="s">
         <v>638</v>
       </c>
@@ -9902,10 +10070,13 @@
         <v>637</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
+      <c r="F33">
+        <v>28</v>
+      </c>
       <c r="G33" s="20" t="s">
         <v>93</v>
       </c>
@@ -9950,10 +10121,13 @@
         <v>636</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
+      <c r="F34">
+        <v>29</v>
+      </c>
       <c r="G34" s="20" t="s">
         <v>94</v>
       </c>
@@ -9998,10 +10172,13 @@
         <v>635</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
+      <c r="F35">
+        <v>30</v>
+      </c>
       <c r="G35" s="20" t="s">
         <v>95</v>
       </c>
@@ -10046,10 +10223,13 @@
         <v>637</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
+      <c r="F36">
+        <v>31</v>
+      </c>
       <c r="G36" s="20" t="s">
         <v>96</v>
       </c>
@@ -10094,10 +10274,13 @@
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
+      <c r="F37">
+        <v>32</v>
+      </c>
       <c r="G37" s="20" t="s">
         <v>97</v>
       </c>
@@ -10142,10 +10325,13 @@
         <v>635</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
+      <c r="F38">
+        <v>33</v>
+      </c>
       <c r="G38" s="20" t="s">
         <v>98</v>
       </c>
@@ -10190,10 +10376,13 @@
         <v>637</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
+      <c r="F39">
+        <v>34</v>
+      </c>
       <c r="G39" s="20" t="s">
         <v>99</v>
       </c>
@@ -10238,10 +10427,13 @@
         <v>636</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
+      <c r="F40">
+        <v>35</v>
+      </c>
       <c r="G40" s="20" t="s">
         <v>100</v>
       </c>
@@ -10286,10 +10478,13 @@
         <v>635</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
+      <c r="F41">
+        <v>36</v>
+      </c>
       <c r="G41" s="20" t="s">
         <v>101</v>
       </c>
@@ -10334,10 +10529,13 @@
         <v>637</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
+      <c r="F42">
+        <v>37</v>
+      </c>
       <c r="G42" s="20" t="s">
         <v>102</v>
       </c>
@@ -10382,10 +10580,13 @@
         <v>636</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
+      <c r="F43">
+        <v>38</v>
+      </c>
       <c r="G43" s="20" t="s">
         <v>103</v>
       </c>
@@ -10430,10 +10631,13 @@
         <v>635</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
+      <c r="F44">
+        <v>39</v>
+      </c>
       <c r="G44" s="20" t="s">
         <v>104</v>
       </c>
@@ -10478,7 +10682,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>43</v>
+      </c>
       <c r="G45" s="20" t="s">
         <v>105</v>
       </c>
@@ -10523,7 +10730,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>44</v>
+      </c>
       <c r="G46" s="20" t="s">
         <v>106</v>
       </c>
@@ -10568,7 +10778,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>45</v>
+      </c>
       <c r="G47" s="20" t="s">
         <v>107</v>
       </c>
@@ -10612,7 +10825,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>46</v>
+      </c>
       <c r="G48" s="20" t="s">
         <v>108</v>
       </c>
@@ -10657,7 +10873,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="49" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>47</v>
+      </c>
       <c r="G49" s="20" t="s">
         <v>109</v>
       </c>
@@ -10702,7 +10921,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="50" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>48</v>
+      </c>
       <c r="G50" s="20" t="s">
         <v>110</v>
       </c>
@@ -10747,7 +10969,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="51" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>49</v>
+      </c>
       <c r="G51" s="20" t="s">
         <v>111</v>
       </c>
@@ -10791,7 +11016,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="52" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>50</v>
+      </c>
       <c r="G52" s="20" t="s">
         <v>112</v>
       </c>
@@ -10835,7 +11063,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="53" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>51</v>
+      </c>
       <c r="G53" s="20" t="s">
         <v>113</v>
       </c>
@@ -10879,7 +11110,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="54" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>52</v>
+      </c>
       <c r="G54" s="20" t="s">
         <v>114</v>
       </c>
@@ -10923,7 +11157,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="55" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>53</v>
+      </c>
       <c r="G55" s="20" t="s">
         <v>115</v>
       </c>
@@ -10967,7 +11204,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="56" spans="7:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="6:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>54</v>
+      </c>
       <c r="G56" s="20" t="s">
         <v>116</v>
       </c>
@@ -11012,7 +11252,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="57" spans="7:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>55</v>
+      </c>
       <c r="G57" s="20" t="s">
         <v>117</v>
       </c>
@@ -11056,7 +11299,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="58" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>56</v>
+      </c>
       <c r="G58" s="20" t="s">
         <v>118</v>
       </c>
@@ -11101,7 +11347,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="59" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>57</v>
+      </c>
       <c r="G59" s="20" t="s">
         <v>119</v>
       </c>
@@ -11145,7 +11394,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="60" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>58</v>
+      </c>
       <c r="G60" s="20" t="s">
         <v>120</v>
       </c>
@@ -11189,7 +11441,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="61" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>59</v>
+      </c>
       <c r="G61" s="20" t="s">
         <v>121</v>
       </c>
@@ -11234,7 +11489,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="62" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>60</v>
+      </c>
       <c r="G62" s="20" t="s">
         <v>122</v>
       </c>
@@ -11278,7 +11536,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="63" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>61</v>
+      </c>
       <c r="G63" s="20" t="s">
         <v>123</v>
       </c>
@@ -11322,7 +11583,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="64" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>62</v>
+      </c>
       <c r="G64" s="20" t="s">
         <v>124</v>
       </c>
@@ -11366,7 +11630,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="65" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>63</v>
+      </c>
       <c r="G65" s="20" t="s">
         <v>125</v>
       </c>
@@ -11410,7 +11677,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="66" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>64</v>
+      </c>
       <c r="G66" s="20" t="s">
         <v>126</v>
       </c>
@@ -11454,7 +11724,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="67" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>65</v>
+      </c>
       <c r="G67" s="20" t="s">
         <v>127</v>
       </c>
@@ -11498,7 +11771,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="68" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>66</v>
+      </c>
       <c r="G68" s="20" t="s">
         <v>128</v>
       </c>
@@ -11542,7 +11818,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="69" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>70</v>
+      </c>
       <c r="G69" s="20" t="s">
         <v>129</v>
       </c>
@@ -11586,7 +11865,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="70" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>71</v>
+      </c>
       <c r="G70" s="20" t="s">
         <v>130</v>
       </c>
@@ -11630,7 +11912,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="71" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>72</v>
+      </c>
       <c r="G71" s="20" t="s">
         <v>131</v>
       </c>
@@ -11674,7 +11959,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="72" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>73</v>
+      </c>
       <c r="G72" s="20" t="s">
         <v>132</v>
       </c>
@@ -11718,7 +12006,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="73" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>74</v>
+      </c>
       <c r="G73" s="20" t="s">
         <v>133</v>
       </c>
@@ -11762,7 +12053,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="74" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>75</v>
+      </c>
       <c r="G74" s="20" t="s">
         <v>134</v>
       </c>
@@ -11806,7 +12100,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="75" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>76</v>
+      </c>
       <c r="G75" s="20" t="s">
         <v>135</v>
       </c>
@@ -11850,7 +12147,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="76" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>77</v>
+      </c>
       <c r="G76" s="20" t="s">
         <v>136</v>
       </c>
@@ -11894,7 +12194,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="77" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>78</v>
+      </c>
       <c r="G77" s="20" t="s">
         <v>137</v>
       </c>
@@ -11938,7 +12241,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="78" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>82</v>
+      </c>
       <c r="G78" s="20" t="s">
         <v>138</v>
       </c>
@@ -11982,7 +12288,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="79" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>83</v>
+      </c>
       <c r="G79" s="20" t="s">
         <v>139</v>
       </c>
@@ -12026,7 +12335,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="80" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>84</v>
+      </c>
       <c r="G80" s="20" t="s">
         <v>140</v>
       </c>
@@ -12070,7 +12382,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="81" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>85</v>
+      </c>
       <c r="G81" s="20" t="s">
         <v>141</v>
       </c>
@@ -12114,7 +12429,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="82" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>86</v>
+      </c>
       <c r="G82" s="20" t="s">
         <v>142</v>
       </c>
@@ -12158,7 +12476,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="83" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>87</v>
+      </c>
       <c r="G83" s="20" t="s">
         <v>143</v>
       </c>
@@ -12202,7 +12523,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="84" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>88</v>
+      </c>
       <c r="G84" s="20" t="s">
         <v>144</v>
       </c>
@@ -12246,7 +12570,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="85" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="85" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>89</v>
+      </c>
       <c r="G85" s="20" t="s">
         <v>145</v>
       </c>
@@ -12290,7 +12617,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="86" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>90</v>
+      </c>
       <c r="G86" s="20" t="s">
         <v>146</v>
       </c>
@@ -12334,7 +12664,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="87" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="87" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>91</v>
+      </c>
       <c r="G87" s="20" t="s">
         <v>147</v>
       </c>
@@ -12378,7 +12711,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="88" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="88" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>92</v>
+      </c>
       <c r="G88" s="20" t="s">
         <v>148</v>
       </c>
@@ -12422,7 +12758,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="89" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="89" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>93</v>
+      </c>
       <c r="G89" s="20" t="s">
         <v>149</v>
       </c>
@@ -12466,7 +12805,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="90" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="90" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>97</v>
+      </c>
       <c r="G90" s="20" t="s">
         <v>150</v>
       </c>
@@ -12510,7 +12852,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="91" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>98</v>
+      </c>
       <c r="G91" s="20" t="s">
         <v>151</v>
       </c>
@@ -12554,7 +12899,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="92" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="92" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>99</v>
+      </c>
       <c r="G92" s="20" t="s">
         <v>152</v>
       </c>
@@ -12598,7 +12946,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="93" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="93" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>100</v>
+      </c>
       <c r="G93" s="20" t="s">
         <v>153</v>
       </c>
@@ -12642,7 +12993,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="94" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="94" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>101</v>
+      </c>
       <c r="G94" s="20" t="s">
         <v>154</v>
       </c>
@@ -12686,7 +13040,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="95" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="95" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>102</v>
+      </c>
       <c r="G95" s="20" t="s">
         <v>155</v>
       </c>
@@ -12730,7 +13087,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="96" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="96" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>103</v>
+      </c>
       <c r="G96" s="20" t="s">
         <v>156</v>
       </c>
@@ -12774,7 +13134,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="97" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="97" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>104</v>
+      </c>
       <c r="G97" s="20" t="s">
         <v>157</v>
       </c>
@@ -12818,7 +13181,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="98" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="98" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>105</v>
+      </c>
       <c r="G98" s="20" t="s">
         <v>158</v>
       </c>
@@ -12862,7 +13228,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="99" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>108</v>
+      </c>
       <c r="G99" s="20" t="s">
         <v>159</v>
       </c>
@@ -12906,7 +13275,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="100" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="100" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>109</v>
+      </c>
       <c r="G100" s="20" t="s">
         <v>160</v>
       </c>
@@ -12950,7 +13322,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="101" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="101" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>110</v>
+      </c>
       <c r="G101" s="20" t="s">
         <v>161</v>
       </c>
@@ -12994,7 +13369,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="102" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="102" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>111</v>
+      </c>
       <c r="G102" s="20" t="s">
         <v>162</v>
       </c>
@@ -13038,7 +13416,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="103" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="103" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>112</v>
+      </c>
       <c r="G103" s="20" t="s">
         <v>163</v>
       </c>
@@ -13082,7 +13463,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="104" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="104" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>113</v>
+      </c>
       <c r="G104" s="20" t="s">
         <v>164</v>
       </c>
@@ -13126,7 +13510,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="105" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="105" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>114</v>
+      </c>
       <c r="G105" s="20" t="s">
         <v>165</v>
       </c>
@@ -13170,7 +13557,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="106" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="106" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>115</v>
+      </c>
       <c r="G106" s="20" t="s">
         <v>166</v>
       </c>
@@ -13214,7 +13604,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="107" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="107" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>116</v>
+      </c>
       <c r="G107" s="20" t="s">
         <v>167</v>
       </c>
@@ -13258,7 +13651,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="108" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="108" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>121</v>
+      </c>
       <c r="G108" s="20" t="s">
         <v>168</v>
       </c>
@@ -13302,7 +13698,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="109" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="109" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>122</v>
+      </c>
       <c r="G109" s="20" t="s">
         <v>169</v>
       </c>
@@ -13346,7 +13745,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="110" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="110" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>123</v>
+      </c>
       <c r="G110" s="20" t="s">
         <v>170</v>
       </c>
@@ -13390,7 +13792,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="111" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="111" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>124</v>
+      </c>
       <c r="G111" s="20" t="s">
         <v>625</v>
       </c>
@@ -13434,7 +13839,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="112" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="112" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>125</v>
+      </c>
       <c r="G112" s="20" t="s">
         <v>626</v>
       </c>
@@ -13478,7 +13886,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="113" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="113" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>126</v>
+      </c>
       <c r="G113" s="20" t="s">
         <v>627</v>
       </c>
@@ -13522,7 +13933,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="114" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="114" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>130</v>
+      </c>
       <c r="G114" s="20" t="s">
         <v>628</v>
       </c>
@@ -13569,7 +13983,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="115" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="115" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>131</v>
+      </c>
       <c r="G115" s="20" t="s">
         <v>629</v>
       </c>
@@ -13616,7 +14033,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="116" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="116" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>132</v>
+      </c>
       <c r="G116" s="20" t="s">
         <v>630</v>
       </c>
@@ -13663,7 +14083,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="117" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="117" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>133</v>
+      </c>
       <c r="G117" s="20" t="s">
         <v>631</v>
       </c>
@@ -13710,7 +14133,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="118" spans="7:23" x14ac:dyDescent="0.35">
+    <row r="118" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>134</v>
+      </c>
       <c r="G118" s="20" t="s">
         <v>632</v>
       </c>
@@ -13757,7 +14183,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="119" spans="7:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="6:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>135</v>
+      </c>
       <c r="G119" s="20" t="s">
         <v>633</v>
       </c>
@@ -13804,19 +14233,22 @@
         <v>637</v>
       </c>
     </row>
-    <row r="120" spans="7:23" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="6:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S23" r:id="rId1" xr:uid="{510F560B-13FB-42F6-852E-767539F79631}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId4"/>
+        <x14:slicer r:id="rId5"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -13827,22 +14259,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400ADB1E-0189-4AFF-A253-5255DEA11ACB}">
   <dimension ref="B2:L251"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
-    <col min="11" max="11" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>70</v>
       </c>
@@ -13871,7 +14303,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>184</v>
       </c>
@@ -13900,7 +14332,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
         <v>214</v>
       </c>
@@ -13929,7 +14361,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
         <v>185</v>
       </c>
@@ -13958,7 +14390,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>182</v>
       </c>
@@ -13987,7 +14419,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>186</v>
       </c>
@@ -14016,7 +14448,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>187</v>
       </c>
@@ -14045,7 +14477,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
         <v>183</v>
       </c>
@@ -14074,7 +14506,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>188</v>
       </c>
@@ -14103,7 +14535,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
         <v>180</v>
       </c>
@@ -14132,7 +14564,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>215</v>
       </c>
@@ -14161,7 +14593,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
         <v>216</v>
       </c>
@@ -14190,7 +14622,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
         <v>189</v>
       </c>
@@ -14219,7 +14651,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>217</v>
       </c>
@@ -14248,7 +14680,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
         <v>190</v>
       </c>
@@ -14277,7 +14709,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
         <v>218</v>
       </c>
@@ -14306,7 +14738,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="s">
         <v>191</v>
       </c>
@@ -14335,7 +14767,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="25" t="s">
         <v>192</v>
       </c>
@@ -14364,7 +14796,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
         <v>219</v>
       </c>
@@ -14393,7 +14825,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
         <v>193</v>
       </c>
@@ -14422,7 +14854,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
         <v>194</v>
       </c>
@@ -14451,7 +14883,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="25" t="s">
         <v>195</v>
       </c>
@@ -14480,7 +14912,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>220</v>
       </c>
@@ -14509,7 +14941,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
         <v>196</v>
       </c>
@@ -14538,7 +14970,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
         <v>197</v>
       </c>
@@ -14567,7 +14999,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="25" t="s">
         <v>221</v>
       </c>
@@ -14596,7 +15028,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
         <v>198</v>
       </c>
@@ -14625,7 +15057,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="31" t="s">
         <v>222</v>
       </c>
@@ -14654,7 +15086,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="25" t="s">
         <v>199</v>
       </c>
@@ -14683,7 +15115,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="25" t="s">
         <v>200</v>
       </c>
@@ -14712,7 +15144,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="25" t="s">
         <v>201</v>
       </c>
@@ -14741,7 +15173,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
         <v>223</v>
       </c>
@@ -14770,7 +15202,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="27" t="s">
         <v>202</v>
       </c>
@@ -14803,7 +15235,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="25" t="s">
         <v>203</v>
       </c>
@@ -14832,7 +15264,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="25" t="s">
         <v>204</v>
       </c>
@@ -14861,7 +15293,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="25" t="s">
         <v>205</v>
       </c>
@@ -14890,7 +15322,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="25" t="s">
         <v>206</v>
       </c>
@@ -14919,7 +15351,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>207</v>
       </c>
@@ -14948,7 +15380,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>208</v>
       </c>
@@ -14977,7 +15409,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="25" t="s">
         <v>209</v>
       </c>
@@ -15006,7 +15438,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="25" t="s">
         <v>210</v>
       </c>
@@ -15035,7 +15467,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="25" t="s">
         <v>211</v>
       </c>
@@ -15064,7 +15496,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>212</v>
       </c>
@@ -15093,7 +15525,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="25" t="s">
         <v>213</v>
       </c>
@@ -15122,7 +15554,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="25" t="s">
         <v>225</v>
       </c>
@@ -15151,7 +15583,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="25" t="s">
         <v>226</v>
       </c>
@@ -15180,7 +15612,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
         <v>227</v>
       </c>
@@ -15209,7 +15641,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="25" t="s">
         <v>228</v>
       </c>
@@ -15238,7 +15670,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="25" t="s">
         <v>229</v>
       </c>
@@ -15267,7 +15699,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
         <v>230</v>
       </c>
@@ -15296,7 +15728,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="25" t="s">
         <v>231</v>
       </c>
@@ -15325,7 +15757,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="25" t="s">
         <v>232</v>
       </c>
@@ -15354,7 +15786,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="31" t="s">
         <v>233</v>
       </c>
@@ -15383,7 +15815,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="25" t="s">
         <v>234</v>
       </c>
@@ -15412,7 +15844,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="31" t="s">
         <v>235</v>
       </c>
@@ -15441,7 +15873,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="25" t="s">
         <v>236</v>
       </c>
@@ -15470,7 +15902,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="31" t="s">
         <v>237</v>
       </c>
@@ -15499,7 +15931,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="25" t="s">
         <v>238</v>
       </c>
@@ -15528,7 +15960,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="25" t="s">
         <v>239</v>
       </c>
@@ -15557,7 +15989,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="31" t="s">
         <v>240</v>
       </c>
@@ -15586,7 +16018,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="25" t="s">
         <v>241</v>
       </c>
@@ -15615,7 +16047,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="25" t="s">
         <v>242</v>
       </c>
@@ -15644,7 +16076,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="25" t="s">
         <v>243</v>
       </c>
@@ -15673,7 +16105,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="25" t="s">
         <v>244</v>
       </c>
@@ -15702,7 +16134,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="25" t="s">
         <v>245</v>
       </c>
@@ -15731,7 +16163,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="31" t="s">
         <v>246</v>
       </c>
@@ -15760,7 +16192,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="25" t="s">
         <v>247</v>
       </c>
@@ -15789,7 +16221,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="25" t="s">
         <v>248</v>
       </c>
@@ -15818,7 +16250,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="25" t="s">
         <v>181</v>
       </c>
@@ -15847,7 +16279,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="31" t="s">
         <v>249</v>
       </c>
@@ -15876,7 +16308,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="31" t="s">
         <v>250</v>
       </c>
@@ -15905,7 +16337,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="25" t="s">
         <v>251</v>
       </c>
@@ -15934,7 +16366,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="31" t="s">
         <v>252</v>
       </c>
@@ -15963,7 +16395,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="31" t="s">
         <v>253</v>
       </c>
@@ -15992,7 +16424,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="25" t="s">
         <v>254</v>
       </c>
@@ -16021,7 +16453,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="31" t="s">
         <v>255</v>
       </c>
@@ -16050,7 +16482,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="31" t="s">
         <v>256</v>
       </c>
@@ -16079,7 +16511,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="25" t="s">
         <v>257</v>
       </c>
@@ -16108,7 +16540,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="28" t="s">
         <v>258</v>
       </c>
@@ -16137,7 +16569,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="31" t="s">
         <v>259</v>
       </c>
@@ -16166,7 +16598,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="31" t="s">
         <v>260</v>
       </c>
@@ -16195,7 +16627,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="25" t="s">
         <v>261</v>
       </c>
@@ -16224,7 +16656,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="25" t="s">
         <v>262</v>
       </c>
@@ -16253,7 +16685,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="25" t="s">
         <v>263</v>
       </c>
@@ -16282,7 +16714,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="25" t="s">
         <v>264</v>
       </c>
@@ -16311,7 +16743,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="25" t="s">
         <v>265</v>
       </c>
@@ -16340,7 +16772,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="28" t="s">
         <v>266</v>
       </c>
@@ -16369,7 +16801,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="25" t="s">
         <v>267</v>
       </c>
@@ -16398,7 +16830,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="25" t="s">
         <v>268</v>
       </c>
@@ -16427,7 +16859,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" s="25" t="s">
         <v>269</v>
       </c>
@@ -16456,7 +16888,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="25" t="s">
         <v>270</v>
       </c>
@@ -16485,7 +16917,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" s="25" t="s">
         <v>579</v>
       </c>
@@ -16514,7 +16946,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" s="25" t="s">
         <v>271</v>
       </c>
@@ -16543,7 +16975,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="25" t="s">
         <v>272</v>
       </c>
@@ -16572,7 +17004,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="25" t="s">
         <v>327</v>
       </c>
@@ -16601,7 +17033,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" s="25" t="s">
         <v>273</v>
       </c>
@@ -16630,7 +17062,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" s="25" t="s">
         <v>335</v>
       </c>
@@ -16659,7 +17091,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" s="31" t="s">
         <v>274</v>
       </c>
@@ -16688,7 +17120,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" s="31" t="s">
         <v>275</v>
       </c>
@@ -16717,7 +17149,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" s="31" t="s">
         <v>276</v>
       </c>
@@ -16746,7 +17178,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" s="25" t="s">
         <v>277</v>
       </c>
@@ -16775,7 +17207,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" s="25" t="s">
         <v>278</v>
       </c>
@@ -16804,7 +17236,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" s="25" t="s">
         <v>279</v>
       </c>
@@ -16833,7 +17265,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" s="31" t="s">
         <v>280</v>
       </c>
@@ -16862,7 +17294,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" s="31" t="s">
         <v>281</v>
       </c>
@@ -16891,7 +17323,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" s="25" t="s">
         <v>282</v>
       </c>
@@ -16920,7 +17352,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" s="28" t="s">
         <v>283</v>
       </c>
@@ -16949,7 +17381,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" s="25" t="s">
         <v>284</v>
       </c>
@@ -16978,7 +17410,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" s="25" t="s">
         <v>285</v>
       </c>
@@ -17007,7 +17439,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B111" s="25" t="s">
         <v>286</v>
       </c>
@@ -17036,7 +17468,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B112" s="25"/>
       <c r="C112" s="26"/>
       <c r="F112" s="22" t="s">
@@ -17061,7 +17493,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="113" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F113" s="22" t="s">
         <v>438</v>
       </c>
@@ -17084,7 +17516,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="114" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F114" s="22" t="s">
         <v>439</v>
       </c>
@@ -17107,7 +17539,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="115" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F115" s="22" t="s">
         <v>441</v>
       </c>
@@ -17130,7 +17562,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="116" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F116" s="22" t="s">
         <v>442</v>
       </c>
@@ -17153,7 +17585,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="117" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F117" s="22" t="s">
         <v>444</v>
       </c>
@@ -17176,7 +17608,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="118" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F118" s="22" t="s">
         <v>446</v>
       </c>
@@ -17199,7 +17631,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="119" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F119" s="22" t="s">
         <v>448</v>
       </c>
@@ -17222,7 +17654,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="120" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F120" s="22" t="s">
         <v>449</v>
       </c>
@@ -17245,7 +17677,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="121" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F121" s="22" t="s">
         <v>450</v>
       </c>
@@ -17268,7 +17700,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="122" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F122" s="22" t="s">
         <v>451</v>
       </c>
@@ -17291,7 +17723,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="123" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F123" s="22" t="s">
         <v>452</v>
       </c>
@@ -17314,7 +17746,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="124" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F124" s="22" t="s">
         <v>453</v>
       </c>
@@ -17337,7 +17769,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="125" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F125" s="22" t="s">
         <v>456</v>
       </c>
@@ -17360,7 +17792,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="126" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F126" s="22" t="s">
         <v>457</v>
       </c>
@@ -17383,7 +17815,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="127" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F127" s="22" t="s">
         <v>459</v>
       </c>
@@ -17406,7 +17838,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="128" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F128" s="22" t="s">
         <v>460</v>
       </c>
@@ -17429,7 +17861,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="129" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F129" s="22" t="s">
         <v>461</v>
       </c>
@@ -17452,7 +17884,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="130" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F130" s="22" t="s">
         <v>462</v>
       </c>
@@ -17475,7 +17907,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="131" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F131" s="22" t="s">
         <v>464</v>
       </c>
@@ -17498,7 +17930,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="132" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F132" s="22" t="s">
         <v>465</v>
       </c>
@@ -17521,7 +17953,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="133" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F133" s="22" t="s">
         <v>466</v>
       </c>
@@ -17544,7 +17976,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="134" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F134" s="22" t="s">
         <v>467</v>
       </c>
@@ -17567,7 +17999,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="135" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F135" s="22" t="s">
         <v>468</v>
       </c>
@@ -17590,7 +18022,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="136" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F136" s="22" t="s">
         <v>469</v>
       </c>
@@ -17613,7 +18045,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="137" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F137" s="22" t="s">
         <v>470</v>
       </c>
@@ -17636,7 +18068,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="138" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F138" s="22" t="s">
         <v>471</v>
       </c>
@@ -17659,7 +18091,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="139" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F139" s="22" t="s">
         <v>472</v>
       </c>
@@ -17682,7 +18114,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="140" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F140" s="22" t="s">
         <v>474</v>
       </c>
@@ -17705,7 +18137,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="141" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F141" s="22" t="s">
         <v>475</v>
       </c>
@@ -17728,7 +18160,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="142" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F142" s="22" t="s">
         <v>477</v>
       </c>
@@ -17751,7 +18183,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="143" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F143" s="22" t="s">
         <v>478</v>
       </c>
@@ -17774,7 +18206,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="144" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F144" s="22" t="s">
         <v>480</v>
       </c>
@@ -17797,7 +18229,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="145" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F145" s="22" t="s">
         <v>481</v>
       </c>
@@ -17820,7 +18252,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="146" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F146" s="22" t="s">
         <v>483</v>
       </c>
@@ -17843,7 +18275,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="147" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F147" s="22" t="s">
         <v>484</v>
       </c>
@@ -17866,7 +18298,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="148" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F148" s="22" t="s">
         <v>486</v>
       </c>
@@ -17889,7 +18321,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="149" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F149" s="22" t="s">
         <v>487</v>
       </c>
@@ -17912,7 +18344,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="150" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F150" s="22" t="s">
         <v>489</v>
       </c>
@@ -17935,7 +18367,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="151" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F151" s="22" t="s">
         <v>490</v>
       </c>
@@ -17958,7 +18390,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="152" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F152" s="22" t="s">
         <v>492</v>
       </c>
@@ -17981,7 +18413,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="153" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F153" s="22" t="s">
         <v>493</v>
       </c>
@@ -18004,7 +18436,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="154" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F154" s="22" t="s">
         <v>495</v>
       </c>
@@ -18027,7 +18459,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="155" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F155" s="22" t="s">
         <v>496</v>
       </c>
@@ -18050,7 +18482,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="156" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F156" s="22" t="s">
         <v>497</v>
       </c>
@@ -18073,7 +18505,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="157" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F157" s="22" t="s">
         <v>498</v>
       </c>
@@ -18096,7 +18528,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="158" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F158" s="22" t="s">
         <v>499</v>
       </c>
@@ -18119,7 +18551,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="159" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F159" s="22" t="s">
         <v>500</v>
       </c>
@@ -18142,7 +18574,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="160" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F160" s="22" t="s">
         <v>502</v>
       </c>
@@ -18165,7 +18597,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="161" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F161" s="22" t="s">
         <v>503</v>
       </c>
@@ -18188,7 +18620,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="162" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F162" s="22" t="s">
         <v>504</v>
       </c>
@@ -18211,7 +18643,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="163" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F163" s="22" t="s">
         <v>507</v>
       </c>
@@ -18234,7 +18666,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="164" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F164" s="22" t="s">
         <v>509</v>
       </c>
@@ -18257,7 +18689,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="165" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F165" s="22" t="s">
         <v>510</v>
       </c>
@@ -18280,7 +18712,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="166" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F166" s="22" t="s">
         <v>512</v>
       </c>
@@ -18303,7 +18735,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="167" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F167" s="22" t="s">
         <v>514</v>
       </c>
@@ -18326,7 +18758,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="168" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F168" s="22" t="s">
         <v>515</v>
       </c>
@@ -18349,7 +18781,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="169" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F169" s="22" t="s">
         <v>517</v>
       </c>
@@ -18372,7 +18804,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="170" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F170" s="22" t="s">
         <v>518</v>
       </c>
@@ -18395,7 +18827,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="171" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F171" s="22" t="s">
         <v>520</v>
       </c>
@@ -18418,7 +18850,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="172" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F172" s="22" t="s">
         <v>521</v>
       </c>
@@ -18441,7 +18873,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="173" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F173" s="22" t="s">
         <v>523</v>
       </c>
@@ -18464,7 +18896,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="174" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F174" s="22" t="s">
         <v>524</v>
       </c>
@@ -18487,7 +18919,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="175" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F175" s="22" t="s">
         <v>525</v>
       </c>
@@ -18510,7 +18942,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="176" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F176" s="22" t="s">
         <v>527</v>
       </c>
@@ -18533,7 +18965,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="177" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F177" s="22" t="s">
         <v>529</v>
       </c>
@@ -18556,7 +18988,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="178" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F178" s="22" t="s">
         <v>531</v>
       </c>
@@ -18579,7 +19011,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="179" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F179" s="22" t="s">
         <v>533</v>
       </c>
@@ -18602,7 +19034,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F180" s="22" t="s">
         <v>535</v>
       </c>
@@ -18625,7 +19057,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="181" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F181" s="22" t="s">
         <v>537</v>
       </c>
@@ -18648,7 +19080,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="182" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F182" s="22" t="s">
         <v>539</v>
       </c>
@@ -18671,7 +19103,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="183" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F183" s="22" t="s">
         <v>540</v>
       </c>
@@ -18694,7 +19126,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="184" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F184" s="22" t="s">
         <v>541</v>
       </c>
@@ -18717,7 +19149,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="185" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F185" s="22" t="s">
         <v>543</v>
       </c>
@@ -18740,7 +19172,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="186" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F186" s="22" t="s">
         <v>545</v>
       </c>
@@ -18763,7 +19195,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="187" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F187" s="22" t="s">
         <v>546</v>
       </c>
@@ -18786,7 +19218,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="188" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F188" s="22" t="s">
         <v>548</v>
       </c>
@@ -18809,7 +19241,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="189" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F189" s="22" t="s">
         <v>549</v>
       </c>
@@ -18832,7 +19264,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="190" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F190" s="22" t="s">
         <v>550</v>
       </c>
@@ -18855,7 +19287,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="191" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F191" s="22" t="s">
         <v>551</v>
       </c>
@@ -18878,7 +19310,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="192" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F192" s="22" t="s">
         <v>552</v>
       </c>
@@ -18901,7 +19333,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="193" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F193" s="22" t="s">
         <v>553</v>
       </c>
@@ -18924,7 +19356,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="194" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F194" s="22" t="s">
         <v>554</v>
       </c>
@@ -18947,7 +19379,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="195" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F195" s="22" t="s">
         <v>555</v>
       </c>
@@ -18970,7 +19402,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="196" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F196" s="22" t="s">
         <v>557</v>
       </c>
@@ -18993,7 +19425,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="197" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F197" s="22" t="s">
         <v>558</v>
       </c>
@@ -19016,7 +19448,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="198" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F198" s="22" t="s">
         <v>559</v>
       </c>
@@ -19039,7 +19471,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="199" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F199" s="22" t="s">
         <v>560</v>
       </c>
@@ -19062,7 +19494,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="200" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F200" s="22" t="s">
         <v>561</v>
       </c>
@@ -19085,7 +19517,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="201" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F201" s="22" t="s">
         <v>562</v>
       </c>
@@ -19108,7 +19540,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="202" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F202" s="22" t="s">
         <v>563</v>
       </c>
@@ -19131,7 +19563,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="203" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F203" s="22" t="s">
         <v>564</v>
       </c>
@@ -19154,7 +19586,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="204" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F204" s="22" t="s">
         <v>565</v>
       </c>
@@ -19177,7 +19609,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="205" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F205" s="22" t="s">
         <v>566</v>
       </c>
@@ -19200,7 +19632,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="206" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F206" s="22" t="s">
         <v>567</v>
       </c>
@@ -19223,7 +19655,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="207" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F207" s="22" t="s">
         <v>568</v>
       </c>
@@ -19246,7 +19678,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="208" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F208" s="22" t="s">
         <v>569</v>
       </c>
@@ -19269,7 +19701,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="209" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F209" s="22" t="s">
         <v>570</v>
       </c>
@@ -19292,7 +19724,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="210" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F210" s="22" t="s">
         <v>573</v>
       </c>
@@ -19315,7 +19747,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="211" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F211" s="22" t="s">
         <v>574</v>
       </c>
@@ -19338,7 +19770,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="212" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F212" s="22" t="s">
         <v>575</v>
       </c>
@@ -19361,7 +19793,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="213" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F213" s="22" t="s">
         <v>577</v>
       </c>
@@ -19384,7 +19816,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="214" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F214" s="22" t="s">
         <v>578</v>
       </c>
@@ -19407,7 +19839,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="215" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F215" s="22" t="s">
         <v>580</v>
       </c>
@@ -19430,7 +19862,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="216" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F216" s="22" t="s">
         <v>581</v>
       </c>
@@ -19453,7 +19885,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="217" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F217" s="22" t="s">
         <v>582</v>
       </c>
@@ -19476,7 +19908,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="218" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F218" s="22" t="s">
         <v>583</v>
       </c>
@@ -19499,7 +19931,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="219" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F219" s="22" t="s">
         <v>584</v>
       </c>
@@ -19522,7 +19954,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="220" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F220" s="22" t="s">
         <v>585</v>
       </c>
@@ -19545,7 +19977,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="221" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F221" s="22" t="s">
         <v>586</v>
       </c>
@@ -19568,7 +20000,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="222" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F222" s="22" t="s">
         <v>587</v>
       </c>
@@ -19591,7 +20023,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="223" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F223" s="22" t="s">
         <v>588</v>
       </c>
@@ -19614,7 +20046,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="224" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F224" s="22" t="s">
         <v>589</v>
       </c>
@@ -19637,7 +20069,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="225" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F225" s="22" t="s">
         <v>590</v>
       </c>
@@ -19660,7 +20092,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="226" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F226" s="22" t="s">
         <v>591</v>
       </c>
@@ -19683,7 +20115,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="227" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F227" s="22" t="s">
         <v>592</v>
       </c>
@@ -19706,7 +20138,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="228" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F228" s="22" t="s">
         <v>593</v>
       </c>
@@ -19729,7 +20161,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="229" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F229" s="22" t="s">
         <v>594</v>
       </c>
@@ -19752,7 +20184,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="230" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F230" s="22" t="s">
         <v>595</v>
       </c>
@@ -19775,7 +20207,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="231" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F231" s="22" t="s">
         <v>596</v>
       </c>
@@ -19798,7 +20230,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="232" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F232" s="22" t="s">
         <v>597</v>
       </c>
@@ -19821,7 +20253,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="233" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F233" s="22" t="s">
         <v>598</v>
       </c>
@@ -19844,7 +20276,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="234" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F234" s="22" t="s">
         <v>599</v>
       </c>
@@ -19867,7 +20299,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="235" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F235" s="22" t="s">
         <v>600</v>
       </c>
@@ -19890,7 +20322,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="236" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F236" s="22" t="s">
         <v>601</v>
       </c>
@@ -19913,7 +20345,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="237" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F237" s="22" t="s">
         <v>602</v>
       </c>
@@ -19936,7 +20368,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="238" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F238" s="22" t="s">
         <v>603</v>
       </c>
@@ -19959,7 +20391,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="239" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F239" s="22" t="s">
         <v>604</v>
       </c>
@@ -19982,7 +20414,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="240" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F240" s="22" t="s">
         <v>605</v>
       </c>
@@ -20005,7 +20437,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="241" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F241" s="22" t="s">
         <v>606</v>
       </c>
@@ -20028,7 +20460,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="242" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F242" s="22" t="s">
         <v>607</v>
       </c>
@@ -20051,7 +20483,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="243" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F243" s="22" t="s">
         <v>608</v>
       </c>
@@ -20074,7 +20506,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="244" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F244" s="22" t="s">
         <v>609</v>
       </c>
@@ -20097,7 +20529,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="245" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F245" s="22" t="s">
         <v>610</v>
       </c>
@@ -20120,7 +20552,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="246" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F246" s="22" t="s">
         <v>611</v>
       </c>
@@ -20143,7 +20575,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="247" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F247" s="22" t="s">
         <v>612</v>
       </c>
@@ -20166,7 +20598,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="248" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F248" s="22" t="s">
         <v>613</v>
       </c>
@@ -20189,7 +20621,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="249" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F249" s="22" t="s">
         <v>614</v>
       </c>
@@ -20212,7 +20644,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="250" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F250" s="22" t="s">
         <v>615</v>
       </c>
@@ -20235,7 +20667,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="251" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F251" s="22" t="s">
         <v>616</v>
       </c>
@@ -20260,7 +20692,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C111">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -20278,13 +20710,13 @@
       <selection activeCell="B2" sqref="B2:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
         <v>69</v>
       </c>
@@ -20292,7 +20724,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>294</v>
       </c>
@@ -20300,7 +20732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>463</v>
       </c>
@@ -20308,7 +20740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>620</v>
       </c>
@@ -20316,7 +20748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>414</v>
       </c>
@@ -20324,7 +20756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>542</v>
       </c>
@@ -20332,7 +20764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
         <v>419</v>
       </c>
@@ -20340,7 +20772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
         <v>319</v>
       </c>
@@ -20348,7 +20780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>392</v>
       </c>
@@ -20356,7 +20788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
         <v>314</v>
       </c>
@@ -20364,7 +20796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
         <v>501</v>
       </c>
@@ -20372,7 +20804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
         <v>282</v>
       </c>
@@ -20380,7 +20812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
         <v>454</v>
       </c>
@@ -20388,7 +20820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
         <v>572</v>
       </c>
@@ -20412,12 +20844,12 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
         <v>178</v>
       </c>
@@ -20425,7 +20857,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>310</v>
       </c>
@@ -20433,7 +20865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>305</v>
       </c>
@@ -20441,7 +20873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>307</v>
       </c>
@@ -20449,7 +20881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>293</v>
       </c>
@@ -20457,7 +20889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>302</v>
       </c>
@@ -20465,7 +20897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
         <v>623</v>
       </c>

--- a/Agricultura/MODELOS/MODELO 4.17 Integrado_mportaciones_mensual.xlsx
+++ b/Agricultura/MODELOS/MODELO 4.17 Integrado_mportaciones_mensual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\MODELOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF4D17-7837-46E4-968D-0FCBBB38A661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02B256F-329E-42AD-AD79-96F93329710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{5402BD67-523E-46F2-97D3-E3B02C663DDC}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="681">
   <si>
     <t>2019/2020</t>
   </si>
@@ -2070,6 +2070,42 @@
   </si>
   <si>
     <t>https://analytics.zoho.com/open-view/2395394000012001487?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012007436</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012007471</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012007557</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012007641?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012007750?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012007821?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012008429?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012008532?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012008671?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012009118?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012009237?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012009383?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
   </si>
 </sst>
 </file>
@@ -8824,9 +8860,9 @@
   <dimension ref="B1:W120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10113,7 +10149,9 @@
       <c r="R33" s="46">
         <v>1</v>
       </c>
-      <c r="S33" s="15"/>
+      <c r="S33" s="15" t="s">
+        <v>669</v>
+      </c>
       <c r="V33" t="s">
         <v>638</v>
       </c>
@@ -10164,7 +10202,9 @@
       <c r="R34" s="46">
         <v>1</v>
       </c>
-      <c r="S34" s="15"/>
+      <c r="S34" s="15" t="s">
+        <v>670</v>
+      </c>
       <c r="V34" t="s">
         <v>638</v>
       </c>
@@ -10215,7 +10255,9 @@
       <c r="R35" s="46">
         <v>1</v>
       </c>
-      <c r="S35" s="15"/>
+      <c r="S35" s="15" t="s">
+        <v>671</v>
+      </c>
       <c r="V35" t="s">
         <v>638</v>
       </c>
@@ -10266,7 +10308,9 @@
       <c r="R36" s="46">
         <v>7</v>
       </c>
-      <c r="S36" s="15"/>
+      <c r="S36" s="15" t="s">
+        <v>672</v>
+      </c>
       <c r="V36" t="s">
         <v>638</v>
       </c>
@@ -10317,7 +10361,9 @@
       <c r="R37" s="46">
         <v>7</v>
       </c>
-      <c r="S37" s="15"/>
+      <c r="S37" s="15" t="s">
+        <v>673</v>
+      </c>
       <c r="V37" t="s">
         <v>638</v>
       </c>
@@ -10368,7 +10414,9 @@
       <c r="R38" s="46">
         <v>7</v>
       </c>
-      <c r="S38" s="15"/>
+      <c r="S38" s="15" t="s">
+        <v>674</v>
+      </c>
       <c r="V38" t="s">
         <v>638</v>
       </c>
@@ -10419,7 +10467,9 @@
       <c r="R39" s="46">
         <v>7</v>
       </c>
-      <c r="S39" s="15"/>
+      <c r="S39" s="15" t="s">
+        <v>675</v>
+      </c>
       <c r="V39" t="s">
         <v>638</v>
       </c>
@@ -10470,7 +10520,9 @@
       <c r="R40" s="46">
         <v>7</v>
       </c>
-      <c r="S40" s="15"/>
+      <c r="S40" s="15" t="s">
+        <v>676</v>
+      </c>
       <c r="V40" t="s">
         <v>638</v>
       </c>
@@ -10521,7 +10573,9 @@
       <c r="R41" s="46">
         <v>7</v>
       </c>
-      <c r="S41" s="15"/>
+      <c r="S41" s="15" t="s">
+        <v>677</v>
+      </c>
       <c r="V41" t="s">
         <v>638</v>
       </c>
@@ -10572,7 +10626,9 @@
       <c r="R42" s="46">
         <v>7</v>
       </c>
-      <c r="S42" s="15"/>
+      <c r="S42" s="15" t="s">
+        <v>678</v>
+      </c>
       <c r="V42" t="s">
         <v>638</v>
       </c>
@@ -10623,7 +10679,9 @@
       <c r="R43" s="46">
         <v>7</v>
       </c>
-      <c r="S43" s="15"/>
+      <c r="S43" s="15" t="s">
+        <v>679</v>
+      </c>
       <c r="V43" t="s">
         <v>638</v>
       </c>
@@ -10674,7 +10732,9 @@
       <c r="R44" s="46">
         <v>7</v>
       </c>
-      <c r="S44" s="15"/>
+      <c r="S44" s="15" t="s">
+        <v>680</v>
+      </c>
       <c r="V44" t="s">
         <v>638</v>
       </c>
@@ -14238,17 +14298,18 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="S23" r:id="rId1" xr:uid="{510F560B-13FB-42F6-852E-767539F79631}"/>
+    <hyperlink ref="S32" r:id="rId2" xr:uid="{51EC4B26-8833-45BF-89E0-02452A7872CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId5"/>
+        <x14:slicer r:id="rId6"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/Agricultura/MODELOS/MODELO 4.17 Integrado_mportaciones_mensual.xlsx
+++ b/Agricultura/MODELOS/MODELO 4.17 Integrado_mportaciones_mensual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\MODELOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\MODELOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02B256F-329E-42AD-AD79-96F93329710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FA05FC-A140-4FE0-81B6-25BD9EE566AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{5402BD67-523E-46F2-97D3-E3B02C663DDC}"/>
   </bookViews>
@@ -28,9 +28,9 @@
     <definedName name="SegmentaciónDeDatos_Superficie">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Variable">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="22" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -52,9 +52,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -63,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="724">
   <si>
     <t>2019/2020</t>
   </si>
@@ -2106,6 +2104,135 @@
   </si>
   <si>
     <t>https://analytics.zoho.com/open-view/2395394000012009383?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011995182?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011995225?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011995333?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011995630?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011995793?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011995907?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012013270?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012013434?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012013549?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012037091</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012037132</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012037234</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012037488?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012037631?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012037807?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012037919?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012044050?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012044162?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012044277?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012044475?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012044595?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012045290?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012045539?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012045691?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001%0A</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012045954?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Procesamiento%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012048052?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Procesamiento%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012048164?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Procesamiento%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012048557?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Procesamiento%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012048794?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Procesamiento%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012048930?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Procesamiento%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011970054?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011970418?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000011970754?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012002060?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012002223?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012002389?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012002586?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012002762?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012002933?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012009659?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012009845?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012012127?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2268,6 +2395,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2397,7 +2531,7 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2549,6 +2683,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -7671,7 +7808,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43C1F081-886C-42B9-A228-362DF52916C5}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43C1F081-886C-42B9-A228-362DF52916C5}" name="TablaDinámica1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8859,10 +8996,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79036886-1897-4BCD-BB4E-BCAD8551FFA8}">
   <dimension ref="B1:W120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
+      <selection pane="bottomLeft" activeCell="S75" sqref="S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10782,7 +10919,9 @@
       <c r="R45" s="46">
         <v>82</v>
       </c>
-      <c r="S45" s="15"/>
+      <c r="S45" s="15" t="s">
+        <v>681</v>
+      </c>
       <c r="V45" t="s">
         <v>638</v>
       </c>
@@ -10830,7 +10969,9 @@
       <c r="R46" s="46">
         <v>82</v>
       </c>
-      <c r="S46" s="15"/>
+      <c r="S46" s="15" t="s">
+        <v>682</v>
+      </c>
       <c r="V46" t="s">
         <v>638</v>
       </c>
@@ -10878,6 +11019,9 @@
       <c r="R47" s="46">
         <v>82</v>
       </c>
+      <c r="S47" s="15" t="s">
+        <v>683</v>
+      </c>
       <c r="V47" t="s">
         <v>638</v>
       </c>
@@ -10925,7 +11069,9 @@
       <c r="R48" s="46">
         <v>82</v>
       </c>
-      <c r="S48" s="15"/>
+      <c r="S48" s="15" t="s">
+        <v>684</v>
+      </c>
       <c r="V48" t="s">
         <v>638</v>
       </c>
@@ -10973,7 +11119,9 @@
       <c r="R49" s="46">
         <v>82</v>
       </c>
-      <c r="S49" s="15"/>
+      <c r="S49" s="15" t="s">
+        <v>685</v>
+      </c>
       <c r="V49" t="s">
         <v>638</v>
       </c>
@@ -11021,7 +11169,9 @@
       <c r="R50" s="46">
         <v>82</v>
       </c>
-      <c r="S50" s="15"/>
+      <c r="S50" s="15" t="s">
+        <v>686</v>
+      </c>
       <c r="V50" t="s">
         <v>638</v>
       </c>
@@ -11069,6 +11219,9 @@
       <c r="R51" s="46">
         <v>82</v>
       </c>
+      <c r="S51" s="15" t="s">
+        <v>687</v>
+      </c>
       <c r="V51" t="s">
         <v>638</v>
       </c>
@@ -11116,6 +11269,9 @@
       <c r="R52" s="46">
         <v>82</v>
       </c>
+      <c r="S52" s="15" t="s">
+        <v>688</v>
+      </c>
       <c r="V52" t="s">
         <v>638</v>
       </c>
@@ -11163,6 +11319,9 @@
       <c r="R53" s="46">
         <v>82</v>
       </c>
+      <c r="S53" s="15" t="s">
+        <v>689</v>
+      </c>
       <c r="V53" t="s">
         <v>638</v>
       </c>
@@ -11210,6 +11369,9 @@
       <c r="R54" s="46">
         <v>82</v>
       </c>
+      <c r="S54" s="63" t="s">
+        <v>690</v>
+      </c>
       <c r="V54" t="s">
         <v>638</v>
       </c>
@@ -11257,6 +11419,9 @@
       <c r="R55" s="46">
         <v>82</v>
       </c>
+      <c r="S55" s="63" t="s">
+        <v>690</v>
+      </c>
       <c r="V55" t="s">
         <v>638</v>
       </c>
@@ -11304,7 +11469,9 @@
       <c r="R56" s="58">
         <v>82</v>
       </c>
-      <c r="S56" s="15"/>
+      <c r="S56" s="63" t="s">
+        <v>690</v>
+      </c>
       <c r="V56" t="s">
         <v>638</v>
       </c>
@@ -11352,6 +11519,9 @@
       <c r="R57" s="46">
         <v>1</v>
       </c>
+      <c r="S57" s="63" t="s">
+        <v>690</v>
+      </c>
       <c r="V57" t="s">
         <v>638</v>
       </c>
@@ -11399,7 +11569,9 @@
       <c r="R58" s="46">
         <v>1</v>
       </c>
-      <c r="S58" s="15"/>
+      <c r="S58" s="63" t="s">
+        <v>690</v>
+      </c>
       <c r="V58" t="s">
         <v>638</v>
       </c>
@@ -11447,6 +11619,9 @@
       <c r="R59" s="46">
         <v>1</v>
       </c>
+      <c r="S59" s="63" t="s">
+        <v>690</v>
+      </c>
       <c r="V59" t="s">
         <v>638</v>
       </c>
@@ -11494,6 +11669,9 @@
       <c r="R60" s="46">
         <v>7</v>
       </c>
+      <c r="S60" s="15" t="s">
+        <v>712</v>
+      </c>
       <c r="V60" t="s">
         <v>638</v>
       </c>
@@ -11541,7 +11719,9 @@
       <c r="R61" s="46">
         <v>7</v>
       </c>
-      <c r="S61" s="15"/>
+      <c r="S61" s="15" t="s">
+        <v>713</v>
+      </c>
       <c r="V61" t="s">
         <v>638</v>
       </c>
@@ -11589,6 +11769,9 @@
       <c r="R62" s="46">
         <v>7</v>
       </c>
+      <c r="S62" s="15" t="s">
+        <v>714</v>
+      </c>
       <c r="V62" t="s">
         <v>638</v>
       </c>
@@ -11636,6 +11819,9 @@
       <c r="R63" s="46">
         <v>7</v>
       </c>
+      <c r="S63" s="15" t="s">
+        <v>715</v>
+      </c>
       <c r="V63" t="s">
         <v>638</v>
       </c>
@@ -11683,6 +11869,9 @@
       <c r="R64" s="46">
         <v>7</v>
       </c>
+      <c r="S64" s="15" t="s">
+        <v>716</v>
+      </c>
       <c r="V64" t="s">
         <v>638</v>
       </c>
@@ -11730,6 +11919,9 @@
       <c r="R65" s="46">
         <v>7</v>
       </c>
+      <c r="S65" s="15" t="s">
+        <v>717</v>
+      </c>
       <c r="V65" t="s">
         <v>638</v>
       </c>
@@ -11777,6 +11969,9 @@
       <c r="R66" s="46">
         <v>7</v>
       </c>
+      <c r="S66" s="15" t="s">
+        <v>718</v>
+      </c>
       <c r="V66" t="s">
         <v>638</v>
       </c>
@@ -11824,6 +12019,9 @@
       <c r="R67" s="46">
         <v>7</v>
       </c>
+      <c r="S67" s="15" t="s">
+        <v>719</v>
+      </c>
       <c r="V67" t="s">
         <v>638</v>
       </c>
@@ -11871,6 +12069,9 @@
       <c r="R68" s="46">
         <v>7</v>
       </c>
+      <c r="S68" s="15" t="s">
+        <v>720</v>
+      </c>
       <c r="V68" t="s">
         <v>638</v>
       </c>
@@ -11918,6 +12119,9 @@
       <c r="R69" s="46">
         <v>82</v>
       </c>
+      <c r="S69" s="15" t="s">
+        <v>721</v>
+      </c>
       <c r="V69" t="s">
         <v>638</v>
       </c>
@@ -11965,6 +12169,9 @@
       <c r="R70" s="46">
         <v>82</v>
       </c>
+      <c r="S70" s="15" t="s">
+        <v>722</v>
+      </c>
       <c r="V70" t="s">
         <v>638</v>
       </c>
@@ -12012,6 +12219,9 @@
       <c r="R71" s="46">
         <v>82</v>
       </c>
+      <c r="S71" s="15" t="s">
+        <v>723</v>
+      </c>
       <c r="V71" t="s">
         <v>638</v>
       </c>
@@ -12059,6 +12269,9 @@
       <c r="R72" s="46">
         <v>82</v>
       </c>
+      <c r="S72" s="65" t="s">
+        <v>690</v>
+      </c>
       <c r="V72" t="s">
         <v>638</v>
       </c>
@@ -12106,6 +12319,9 @@
       <c r="R73" s="46">
         <v>82</v>
       </c>
+      <c r="S73" s="65" t="s">
+        <v>690</v>
+      </c>
       <c r="V73" t="s">
         <v>638</v>
       </c>
@@ -12153,6 +12369,9 @@
       <c r="R74" s="46">
         <v>82</v>
       </c>
+      <c r="S74" s="65" t="s">
+        <v>690</v>
+      </c>
       <c r="V74" t="s">
         <v>638</v>
       </c>
@@ -13290,7 +13509,7 @@
     </row>
     <row r="99" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F99">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G99" s="20" t="s">
         <v>159</v>
@@ -13328,6 +13547,9 @@
       <c r="R99" s="46">
         <v>1</v>
       </c>
+      <c r="S99" s="15" t="s">
+        <v>691</v>
+      </c>
       <c r="V99" t="s">
         <v>638</v>
       </c>
@@ -13337,7 +13559,7 @@
     </row>
     <row r="100" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F100">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G100" s="20" t="s">
         <v>160</v>
@@ -13375,6 +13597,9 @@
       <c r="R100" s="46">
         <v>1</v>
       </c>
+      <c r="S100" s="15" t="s">
+        <v>692</v>
+      </c>
       <c r="V100" t="s">
         <v>638</v>
       </c>
@@ -13384,7 +13609,7 @@
     </row>
     <row r="101" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F101">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G101" s="20" t="s">
         <v>161</v>
@@ -13422,6 +13647,9 @@
       <c r="R101" s="46">
         <v>1</v>
       </c>
+      <c r="S101" s="15" t="s">
+        <v>693</v>
+      </c>
       <c r="V101" t="s">
         <v>638</v>
       </c>
@@ -13431,7 +13659,7 @@
     </row>
     <row r="102" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F102">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G102" s="20" t="s">
         <v>162</v>
@@ -13469,6 +13697,9 @@
       <c r="R102" s="46">
         <v>7</v>
       </c>
+      <c r="S102" s="15" t="s">
+        <v>694</v>
+      </c>
       <c r="V102" t="s">
         <v>638</v>
       </c>
@@ -13478,7 +13709,7 @@
     </row>
     <row r="103" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F103">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G103" s="20" t="s">
         <v>163</v>
@@ -13516,6 +13747,9 @@
       <c r="R103" s="46">
         <v>7</v>
       </c>
+      <c r="S103" s="15" t="s">
+        <v>695</v>
+      </c>
       <c r="V103" t="s">
         <v>638</v>
       </c>
@@ -13525,7 +13759,7 @@
     </row>
     <row r="104" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F104">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G104" s="20" t="s">
         <v>164</v>
@@ -13563,6 +13797,9 @@
       <c r="R104" s="46">
         <v>7</v>
       </c>
+      <c r="S104" s="15" t="s">
+        <v>696</v>
+      </c>
       <c r="V104" t="s">
         <v>638</v>
       </c>
@@ -13572,7 +13809,7 @@
     </row>
     <row r="105" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F105">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G105" s="20" t="s">
         <v>165</v>
@@ -13610,6 +13847,9 @@
       <c r="R105" s="46">
         <v>7</v>
       </c>
+      <c r="S105" s="15" t="s">
+        <v>697</v>
+      </c>
       <c r="V105" t="s">
         <v>638</v>
       </c>
@@ -13619,7 +13859,7 @@
     </row>
     <row r="106" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F106">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G106" s="20" t="s">
         <v>166</v>
@@ -13657,6 +13897,9 @@
       <c r="R106" s="46">
         <v>7</v>
       </c>
+      <c r="S106" s="15" t="s">
+        <v>698</v>
+      </c>
       <c r="V106" t="s">
         <v>638</v>
       </c>
@@ -13666,7 +13909,7 @@
     </row>
     <row r="107" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F107">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G107" s="20" t="s">
         <v>167</v>
@@ -13704,6 +13947,9 @@
       <c r="R107" s="46">
         <v>7</v>
       </c>
+      <c r="S107" s="15" t="s">
+        <v>699</v>
+      </c>
       <c r="V107" t="s">
         <v>638</v>
       </c>
@@ -13751,6 +13997,9 @@
       <c r="R108" s="46">
         <v>82</v>
       </c>
+      <c r="S108" s="15" t="s">
+        <v>700</v>
+      </c>
       <c r="V108" t="s">
         <v>638</v>
       </c>
@@ -13798,6 +14047,9 @@
       <c r="R109" s="46">
         <v>82</v>
       </c>
+      <c r="S109" s="15" t="s">
+        <v>701</v>
+      </c>
       <c r="V109" t="s">
         <v>638</v>
       </c>
@@ -13845,6 +14097,9 @@
       <c r="R110" s="46">
         <v>82</v>
       </c>
+      <c r="S110" s="15" t="s">
+        <v>702</v>
+      </c>
       <c r="V110" t="s">
         <v>638</v>
       </c>
@@ -13892,6 +14147,9 @@
       <c r="R111" s="46">
         <v>82</v>
       </c>
+      <c r="S111" s="15" t="s">
+        <v>703</v>
+      </c>
       <c r="V111" t="s">
         <v>638</v>
       </c>
@@ -13939,6 +14197,9 @@
       <c r="R112" s="46">
         <v>82</v>
       </c>
+      <c r="S112" s="15" t="s">
+        <v>704</v>
+      </c>
       <c r="V112" t="s">
         <v>638</v>
       </c>
@@ -13986,6 +14247,9 @@
       <c r="R113" s="46">
         <v>82</v>
       </c>
+      <c r="S113" s="15" t="s">
+        <v>705</v>
+      </c>
       <c r="V113" t="s">
         <v>638</v>
       </c>
@@ -14033,7 +14297,9 @@
       <c r="R114" s="46">
         <v>6</v>
       </c>
-      <c r="S114" s="62"/>
+      <c r="S114" s="64" t="s">
+        <v>706</v>
+      </c>
       <c r="T114" s="62"/>
       <c r="U114" s="62"/>
       <c r="V114" t="s">
@@ -14083,7 +14349,9 @@
       <c r="R115" s="46">
         <v>6</v>
       </c>
-      <c r="S115" s="62"/>
+      <c r="S115" s="64" t="s">
+        <v>707</v>
+      </c>
       <c r="T115" s="62"/>
       <c r="U115" s="62"/>
       <c r="V115" t="s">
@@ -14133,7 +14401,9 @@
       <c r="R116" s="46">
         <v>6</v>
       </c>
-      <c r="S116" s="62"/>
+      <c r="S116" s="64" t="s">
+        <v>708</v>
+      </c>
       <c r="T116" s="62"/>
       <c r="U116" s="62"/>
       <c r="V116" t="s">
@@ -14183,7 +14453,9 @@
       <c r="R117" s="46">
         <v>6</v>
       </c>
-      <c r="S117" s="62"/>
+      <c r="S117" s="64" t="s">
+        <v>709</v>
+      </c>
       <c r="T117" s="62"/>
       <c r="U117" s="62"/>
       <c r="V117" t="s">
@@ -14233,7 +14505,9 @@
       <c r="R118" s="46">
         <v>6</v>
       </c>
-      <c r="S118" s="62"/>
+      <c r="S118" s="64" t="s">
+        <v>710</v>
+      </c>
       <c r="T118" s="62"/>
       <c r="U118" s="62"/>
       <c r="V118" t="s">
@@ -14283,7 +14557,9 @@
       <c r="R119" s="58">
         <v>6</v>
       </c>
-      <c r="S119" s="62"/>
+      <c r="S119" s="64" t="s">
+        <v>711</v>
+      </c>
       <c r="T119" s="62"/>
       <c r="U119" s="62"/>
       <c r="V119" t="s">
@@ -14299,17 +14575,54 @@
   <hyperlinks>
     <hyperlink ref="S23" r:id="rId1" xr:uid="{510F560B-13FB-42F6-852E-767539F79631}"/>
     <hyperlink ref="S32" r:id="rId2" xr:uid="{51EC4B26-8833-45BF-89E0-02452A7872CB}"/>
+    <hyperlink ref="S47" r:id="rId3" xr:uid="{A3978D25-141D-4DD9-AC53-2683717EE0CB}"/>
+    <hyperlink ref="S51" r:id="rId4" xr:uid="{8655002B-538B-4778-A286-D667FEF95694}"/>
+    <hyperlink ref="S52" r:id="rId5" xr:uid="{899C6FA6-CF63-45D2-B8A9-D84178875ADE}"/>
+    <hyperlink ref="S53" r:id="rId6" xr:uid="{12898159-29E4-475E-AD63-E0970FF376B5}"/>
+    <hyperlink ref="S99" r:id="rId7" xr:uid="{F4ECC142-E68B-4991-BB9E-B85111628E3B}"/>
+    <hyperlink ref="S100" r:id="rId8" xr:uid="{B4BABAD8-D664-4F27-9DA5-2D78029BA169}"/>
+    <hyperlink ref="S101" r:id="rId9" xr:uid="{17150010-8D30-4976-BFD6-DCAB119AB964}"/>
+    <hyperlink ref="S102" r:id="rId10" xr:uid="{A50AC827-401E-4CC5-917F-1A11E160B647}"/>
+    <hyperlink ref="S103" r:id="rId11" xr:uid="{CAD0FAEA-90BD-4CD7-808F-0030AED62876}"/>
+    <hyperlink ref="S104" r:id="rId12" xr:uid="{05B98F9D-8FBC-435F-82C6-0B993E5BCE8B}"/>
+    <hyperlink ref="S105" r:id="rId13" xr:uid="{449EE08A-136D-4FA1-8329-0BFB4ADC985D}"/>
+    <hyperlink ref="S106" r:id="rId14" xr:uid="{73B1871B-08AD-41CD-85E6-536684289B24}"/>
+    <hyperlink ref="S107" r:id="rId15" xr:uid="{90326898-A8D6-4210-B278-7922CD4AF497}"/>
+    <hyperlink ref="S108" r:id="rId16" xr:uid="{8C1A0712-60EE-4F6C-B754-60A38803BF37}"/>
+    <hyperlink ref="S109" r:id="rId17" xr:uid="{8F08861B-41F3-42C0-9D7B-DB34CB75A425}"/>
+    <hyperlink ref="S110" r:id="rId18" xr:uid="{3FEADCD3-0811-4DDC-A834-4A50392D3D26}"/>
+    <hyperlink ref="S111" r:id="rId19" xr:uid="{1DC29A9D-5C00-4F36-A868-4EB03869EB20}"/>
+    <hyperlink ref="S112" r:id="rId20" xr:uid="{322E1BA1-3B2A-49F0-9964-5FA5EDB41E14}"/>
+    <hyperlink ref="S113" r:id="rId21" xr:uid="{6DE45082-9902-476F-B393-DBDA88CBA42D}"/>
+    <hyperlink ref="S114" r:id="rId22" xr:uid="{37A19F04-227F-417C-9133-9068F8438824}"/>
+    <hyperlink ref="S115" r:id="rId23" xr:uid="{9E8AD07D-D954-4D43-85E6-EF90A308A8DD}"/>
+    <hyperlink ref="S116" r:id="rId24" xr:uid="{C123787D-BE45-4B89-8BC7-5FE39C32B759}"/>
+    <hyperlink ref="S117" r:id="rId25" xr:uid="{862EEE32-4F35-4676-9FFB-A861A739038F}"/>
+    <hyperlink ref="S118" r:id="rId26" xr:uid="{3E29AAD7-32E8-4F5D-9B44-B5D3D036AB96}"/>
+    <hyperlink ref="S119" r:id="rId27" xr:uid="{5029E50F-6285-4909-B34B-BC36951E0607}"/>
+    <hyperlink ref="S60" r:id="rId28" xr:uid="{D1C96DB6-5CF5-4DF0-BFE4-4317E15D9E11}"/>
+    <hyperlink ref="S61" r:id="rId29" xr:uid="{6A175675-4476-4FA7-B2A6-BBE471EE5B66}"/>
+    <hyperlink ref="S62" r:id="rId30" xr:uid="{7590E86D-0C93-4A1C-9EC8-F6F37858CFC0}"/>
+    <hyperlink ref="S63" r:id="rId31" xr:uid="{0E6D71D3-BBE3-42FF-9B96-59F6C42FF26E}"/>
+    <hyperlink ref="S64" r:id="rId32" xr:uid="{D8397549-A690-4ECC-B361-39CADEE943B2}"/>
+    <hyperlink ref="S65" r:id="rId33" xr:uid="{030747E1-D285-4BA5-9090-42668E1D00AC}"/>
+    <hyperlink ref="S66" r:id="rId34" xr:uid="{9E8F34B3-194A-4659-99D6-B0616732F48D}"/>
+    <hyperlink ref="S67" r:id="rId35" xr:uid="{3E11106A-17AB-4770-BEA1-2EB7E1846806}"/>
+    <hyperlink ref="S68" r:id="rId36" xr:uid="{3F720F85-3644-46CA-86C4-3481800B4A4F}"/>
+    <hyperlink ref="S69" r:id="rId37" xr:uid="{1C27722E-90B6-4580-A56F-B7C1944F52C6}"/>
+    <hyperlink ref="S70" r:id="rId38" xr:uid="{FA991B12-2D57-4ACC-8379-44526710E424}"/>
+    <hyperlink ref="S71" r:id="rId39" xr:uid="{CECE6AE7-1231-4B5A-B26C-E7FA592C0C77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
+  <drawing r:id="rId41"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId42"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId6"/>
+        <x14:slicer r:id="rId43"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -20768,7 +21081,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Agricultura/MODELOS/MODELO 4.17 Integrado_mportaciones_mensual.xlsx
+++ b/Agricultura/MODELOS/MODELO 4.17 Integrado_mportaciones_mensual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\MODELOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\MODELOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FA05FC-A140-4FE0-81B6-25BD9EE566AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFE807D-4CC8-489C-B5BB-36FFF9650D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{5402BD67-523E-46F2-97D3-E3B02C663DDC}"/>
   </bookViews>
@@ -28,9 +28,9 @@
     <definedName name="SegmentaciónDeDatos_Superficie">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Variable">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -52,7 +52,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="748">
   <si>
     <t>2019/2020</t>
   </si>
@@ -2233,6 +2235,78 @@
   </si>
   <si>
     <t>https://analytics.zoho.com/open-view/2395394000012012127?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012012430?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012012681?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012012857?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012043055?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012043240?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012043528?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012058166?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012058398?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012058630?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012058854?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012072075?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012072296?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod_Categor%C3%ADa%22%3D1</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012072519?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012072778?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012074092?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012074222?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012074384?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012074549?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012074905?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012075194?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012075417?ZOHO_CRITERIA=%22Traspuesta%204.17_Mes%2FA%C3%B1o%22.%22Cod-cultivo%22%3D100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012043055</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012043240</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000012043528</t>
   </si>
 </sst>
 </file>
@@ -2531,7 +2605,7 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2685,7 +2759,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -7808,7 +7881,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43C1F081-886C-42B9-A228-362DF52916C5}" name="TablaDinámica1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43C1F081-886C-42B9-A228-362DF52916C5}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8996,10 +9069,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79036886-1897-4BCD-BB4E-BCAD8551FFA8}">
   <dimension ref="B1:W120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="S75" sqref="S75"/>
+      <selection pane="bottomLeft" activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12269,8 +12342,8 @@
       <c r="R72" s="46">
         <v>82</v>
       </c>
-      <c r="S72" s="65" t="s">
-        <v>690</v>
+      <c r="S72" s="15" t="s">
+        <v>663</v>
       </c>
       <c r="V72" t="s">
         <v>638</v>
@@ -12319,8 +12392,8 @@
       <c r="R73" s="46">
         <v>82</v>
       </c>
-      <c r="S73" s="65" t="s">
-        <v>690</v>
+      <c r="S73" s="15" t="s">
+        <v>664</v>
       </c>
       <c r="V73" t="s">
         <v>638</v>
@@ -12369,8 +12442,8 @@
       <c r="R74" s="46">
         <v>82</v>
       </c>
-      <c r="S74" s="65" t="s">
-        <v>690</v>
+      <c r="S74" s="15" t="s">
+        <v>665</v>
       </c>
       <c r="V74" t="s">
         <v>638</v>
@@ -12419,6 +12492,9 @@
       <c r="R75" s="46">
         <v>82</v>
       </c>
+      <c r="S75" s="15" t="s">
+        <v>724</v>
+      </c>
       <c r="V75" t="s">
         <v>638</v>
       </c>
@@ -12466,6 +12542,9 @@
       <c r="R76" s="46">
         <v>82</v>
       </c>
+      <c r="S76" s="15" t="s">
+        <v>725</v>
+      </c>
       <c r="V76" t="s">
         <v>638</v>
       </c>
@@ -12513,6 +12592,9 @@
       <c r="R77" s="46">
         <v>82</v>
       </c>
+      <c r="S77" s="15" t="s">
+        <v>726</v>
+      </c>
       <c r="V77" t="s">
         <v>638</v>
       </c>
@@ -12560,6 +12642,9 @@
       <c r="R78" s="46">
         <v>1</v>
       </c>
+      <c r="S78" s="15" t="s">
+        <v>745</v>
+      </c>
       <c r="V78" t="s">
         <v>638</v>
       </c>
@@ -12607,6 +12692,9 @@
       <c r="R79" s="46">
         <v>1</v>
       </c>
+      <c r="S79" s="15" t="s">
+        <v>746</v>
+      </c>
       <c r="V79" t="s">
         <v>638</v>
       </c>
@@ -12654,6 +12742,9 @@
       <c r="R80" s="46">
         <v>1</v>
       </c>
+      <c r="S80" s="15" t="s">
+        <v>747</v>
+      </c>
       <c r="V80" t="s">
         <v>638</v>
       </c>
@@ -12701,6 +12792,9 @@
       <c r="R81" s="46">
         <v>7</v>
       </c>
+      <c r="S81" s="15" t="s">
+        <v>727</v>
+      </c>
       <c r="V81" t="s">
         <v>638</v>
       </c>
@@ -12748,6 +12842,9 @@
       <c r="R82" s="46">
         <v>7</v>
       </c>
+      <c r="S82" s="15" t="s">
+        <v>728</v>
+      </c>
       <c r="V82" t="s">
         <v>638</v>
       </c>
@@ -12795,6 +12892,9 @@
       <c r="R83" s="46">
         <v>7</v>
       </c>
+      <c r="S83" s="15" t="s">
+        <v>729</v>
+      </c>
       <c r="V83" t="s">
         <v>638</v>
       </c>
@@ -12842,6 +12942,9 @@
       <c r="R84" s="46">
         <v>7</v>
       </c>
+      <c r="S84" s="15" t="s">
+        <v>730</v>
+      </c>
       <c r="V84" t="s">
         <v>638</v>
       </c>
@@ -12889,6 +12992,9 @@
       <c r="R85" s="46">
         <v>7</v>
       </c>
+      <c r="S85" s="15" t="s">
+        <v>731</v>
+      </c>
       <c r="V85" t="s">
         <v>638</v>
       </c>
@@ -12936,6 +13042,9 @@
       <c r="R86" s="46">
         <v>7</v>
       </c>
+      <c r="S86" s="15" t="s">
+        <v>732</v>
+      </c>
       <c r="V86" t="s">
         <v>638</v>
       </c>
@@ -12983,6 +13092,9 @@
       <c r="R87" s="46">
         <v>7</v>
       </c>
+      <c r="S87" s="15" t="s">
+        <v>733</v>
+      </c>
       <c r="V87" t="s">
         <v>638</v>
       </c>
@@ -13030,6 +13142,9 @@
       <c r="R88" s="46">
         <v>7</v>
       </c>
+      <c r="S88" s="15" t="s">
+        <v>734</v>
+      </c>
       <c r="V88" t="s">
         <v>638</v>
       </c>
@@ -13077,6 +13192,9 @@
       <c r="R89" s="46">
         <v>7</v>
       </c>
+      <c r="S89" s="15" t="s">
+        <v>735</v>
+      </c>
       <c r="V89" t="s">
         <v>638</v>
       </c>
@@ -13124,6 +13242,9 @@
       <c r="R90" s="46">
         <v>82</v>
       </c>
+      <c r="S90" s="15" t="s">
+        <v>736</v>
+      </c>
       <c r="V90" t="s">
         <v>638</v>
       </c>
@@ -13171,6 +13292,9 @@
       <c r="R91" s="46">
         <v>82</v>
       </c>
+      <c r="S91" s="15" t="s">
+        <v>737</v>
+      </c>
       <c r="V91" t="s">
         <v>638</v>
       </c>
@@ -13218,6 +13342,9 @@
       <c r="R92" s="46">
         <v>82</v>
       </c>
+      <c r="S92" s="15" t="s">
+        <v>738</v>
+      </c>
       <c r="V92" t="s">
         <v>638</v>
       </c>
@@ -13265,6 +13392,9 @@
       <c r="R93" s="46">
         <v>82</v>
       </c>
+      <c r="S93" s="15" t="s">
+        <v>739</v>
+      </c>
       <c r="V93" t="s">
         <v>638</v>
       </c>
@@ -13312,6 +13442,9 @@
       <c r="R94" s="46">
         <v>82</v>
       </c>
+      <c r="S94" s="15" t="s">
+        <v>740</v>
+      </c>
       <c r="V94" t="s">
         <v>638</v>
       </c>
@@ -13359,6 +13492,9 @@
       <c r="R95" s="46">
         <v>82</v>
       </c>
+      <c r="S95" s="15" t="s">
+        <v>741</v>
+      </c>
       <c r="V95" t="s">
         <v>638</v>
       </c>
@@ -13406,6 +13542,9 @@
       <c r="R96" s="46">
         <v>82</v>
       </c>
+      <c r="S96" s="15" t="s">
+        <v>742</v>
+      </c>
       <c r="V96" t="s">
         <v>638</v>
       </c>
@@ -13453,6 +13592,9 @@
       <c r="R97" s="46">
         <v>82</v>
       </c>
+      <c r="S97" s="15" t="s">
+        <v>743</v>
+      </c>
       <c r="V97" t="s">
         <v>638</v>
       </c>
@@ -13499,6 +13641,9 @@
       </c>
       <c r="R98" s="46">
         <v>82</v>
+      </c>
+      <c r="S98" s="15" t="s">
+        <v>744</v>
       </c>
       <c r="V98" t="s">
         <v>638</v>
@@ -14612,17 +14757,41 @@
     <hyperlink ref="S69" r:id="rId37" xr:uid="{1C27722E-90B6-4580-A56F-B7C1944F52C6}"/>
     <hyperlink ref="S70" r:id="rId38" xr:uid="{FA991B12-2D57-4ACC-8379-44526710E424}"/>
     <hyperlink ref="S71" r:id="rId39" xr:uid="{CECE6AE7-1231-4B5A-B26C-E7FA592C0C77}"/>
+    <hyperlink ref="S75" r:id="rId40" xr:uid="{A84A04C1-BD20-46DD-9392-C4A2DDD7387E}"/>
+    <hyperlink ref="S76" r:id="rId41" xr:uid="{4963AE64-FBAF-4B94-AEAD-FD3F94BD2A4D}"/>
+    <hyperlink ref="S77" r:id="rId42" xr:uid="{6090A4E9-EB3E-439B-A41B-02E067ABB799}"/>
+    <hyperlink ref="S81" r:id="rId43" xr:uid="{32BE326D-6ED8-4773-B09F-8E65E7BEF431}"/>
+    <hyperlink ref="S82" r:id="rId44" xr:uid="{68889474-207E-4CAF-BB4E-79A872B74ABB}"/>
+    <hyperlink ref="S83" r:id="rId45" xr:uid="{1F9882CA-7FEB-4C48-B2C9-AB4FB309FA2D}"/>
+    <hyperlink ref="S84" r:id="rId46" xr:uid="{67AA8B89-A7E7-4A73-931C-FE4374D7C362}"/>
+    <hyperlink ref="S85" r:id="rId47" xr:uid="{4C3768B2-11BE-4FC3-AB0B-6573F5BEE8D6}"/>
+    <hyperlink ref="S86" r:id="rId48" xr:uid="{3D1A15AE-5CBD-4D0D-AF83-C385DB970A5E}"/>
+    <hyperlink ref="S87" r:id="rId49" xr:uid="{A2C10421-C59D-4B61-B7C2-017B1DD13588}"/>
+    <hyperlink ref="S88" r:id="rId50" xr:uid="{F2BB980D-F58C-4B54-A5FD-1BD54236346C}"/>
+    <hyperlink ref="S89" r:id="rId51" xr:uid="{460A8649-19AF-4370-849F-28FFF5DCB967}"/>
+    <hyperlink ref="S90" r:id="rId52" xr:uid="{F5624845-F899-4062-B04A-18503DDC6E68}"/>
+    <hyperlink ref="S91" r:id="rId53" xr:uid="{4FC9612A-085F-40D0-8246-6A3C18C961E8}"/>
+    <hyperlink ref="S92" r:id="rId54" xr:uid="{63F27B76-E0B6-4DA8-8244-CD4F6D163315}"/>
+    <hyperlink ref="S93" r:id="rId55" xr:uid="{07C1DEC2-2564-4873-9D3A-4957AD6A5944}"/>
+    <hyperlink ref="S94" r:id="rId56" xr:uid="{39456144-4155-4949-82E9-8BAFBB2F1068}"/>
+    <hyperlink ref="S95" r:id="rId57" xr:uid="{B125F8EA-2F04-4350-B8C2-12C9DA0CDF5F}"/>
+    <hyperlink ref="S96" r:id="rId58" xr:uid="{0AE1C354-B02B-47D2-813F-C30C5687C786}"/>
+    <hyperlink ref="S97" r:id="rId59" xr:uid="{7622C75A-6B9A-4A23-8E62-F018B074879F}"/>
+    <hyperlink ref="S98" r:id="rId60" xr:uid="{BBB7D457-1701-49D7-BB9D-EB5382EB33CF}"/>
+    <hyperlink ref="S78" r:id="rId61" xr:uid="{953FD049-2E94-45F6-885D-768DF1BFEAE8}"/>
+    <hyperlink ref="S79" r:id="rId62" xr:uid="{E1C75DE4-3DC6-42A8-BD62-022A23C3CBC7}"/>
+    <hyperlink ref="S80" r:id="rId63" xr:uid="{30E900D2-9CF1-4042-B83E-B4559879438F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
-  <drawing r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId64"/>
+  <drawing r:id="rId65"/>
   <tableParts count="1">
-    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId66"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId43"/>
+        <x14:slicer r:id="rId67"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -14634,7 +14803,7 @@
   <dimension ref="B2:L251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
